--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69617A38-27A8-4463-BAB5-52496C5D8349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E5E42-228F-49A2-BEBC-5B2B01B77D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Equipe</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Não</t>
   </si>
   <si>
-    <t>João Paranhos</t>
-  </si>
-  <si>
     <t>Gustavo Bittencourt</t>
   </si>
   <si>
@@ -155,13 +152,10 @@
     <t>Notas: AV1 - Projeto Arduino - Microcontroladores - 01/05/2023</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>***</t>
+  </si>
+  <si>
+    <t>Obs.: Nota: NF - João Paranhos, mesma pessoa</t>
   </si>
 </sst>
 </file>
@@ -612,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +619,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -656,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -674,7 +668,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -689,12 +683,12 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D10" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -714,18 +708,18 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -736,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -745,12 +739,12 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -758,7 +752,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -775,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -794,18 +788,18 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -813,7 +807,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D27" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -830,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -855,7 +849,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -863,12 +857,12 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -888,43 +882,29 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>9</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
         <v>39</v>
       </c>
     </row>

--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60E5E42-228F-49A2-BEBC-5B2B01B77D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741971C-07D6-42EB-96C4-22899B7E654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Equipe</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Obs.: Nota: NF - João Paranhos, mesma pessoa</t>
+  </si>
+  <si>
+    <t>sozinho</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +287,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -292,6 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,8 +626,8 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="18" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="2:7" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D1" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -673,7 +682,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E9">
@@ -687,7 +696,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F10">
@@ -729,7 +738,7 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E17">
@@ -756,10 +765,13 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E21">
@@ -773,138 +785,132 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="6"/>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="6"/>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>12</v>
+      <c r="D24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>6</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="D31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35">
         <v>7</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
         <v>10</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
+      <c r="D38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
         <v>9</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>7</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
         <v>39</v>
       </c>
     </row>

--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5741971C-07D6-42EB-96C4-22899B7E654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7CA8F4-A76A-4AD7-B976-A3CC2A0D397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Equipe</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Sem equipe</t>
   </si>
   <si>
-    <t>Projeto não exibe</t>
-  </si>
-  <si>
     <t>Luiggi Antonni</t>
   </si>
   <si>
@@ -159,6 +156,15 @@
   </si>
   <si>
     <t>sozinho</t>
+  </si>
+  <si>
+    <t>MASANORI AZEVEDO FUKUTANI</t>
+  </si>
+  <si>
+    <t>Ederson da Cruz Conceição</t>
+  </si>
+  <si>
+    <t>Projeto não exibe no Tinkercad</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +634,7 @@
   <sheetData>
     <row r="1" spans="2:7" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -677,7 +683,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -728,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -766,7 +772,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -794,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -830,14 +836,18 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="9"/>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31">
@@ -868,7 +878,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -896,7 +906,7 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -911,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7CA8F4-A76A-4AD7-B976-A3CC2A0D397E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7B7A5-DBFD-4224-B1FA-44FC14DE3C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Equipe</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Alunos</t>
   </si>
   <si>
-    <t>Diego Felipe</t>
-  </si>
-  <si>
     <t>Herbert Soares</t>
   </si>
   <si>
@@ -59,18 +56,12 @@
     <t>MM</t>
   </si>
   <si>
-    <t>Jonatas Bonfim</t>
-  </si>
-  <si>
     <t>Laercio</t>
   </si>
   <si>
     <t>Wendel</t>
   </si>
   <si>
-    <t>Iuri</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
     <t>Marcelo Carmo</t>
   </si>
   <si>
-    <t>Obs: Lâmpada não acende; resist mal definido</t>
-  </si>
-  <si>
     <t>Não</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Thiago Ramos</t>
   </si>
   <si>
-    <t>Obs: Lâmpada simular dia e noite; display dia; curto lâmpada</t>
-  </si>
-  <si>
     <t>Ariel</t>
   </si>
   <si>
@@ -128,15 +113,6 @@
     <t>Obs: resist mal definido; atrasado</t>
   </si>
   <si>
-    <t>Obs: resist mal definido; libera teclado e não bloqueia de novo</t>
-  </si>
-  <si>
-    <t>Fora do prazo e não postou na tarefa.</t>
-  </si>
-  <si>
-    <t>Sem equipe</t>
-  </si>
-  <si>
     <t>Luiggi Antonni</t>
   </si>
   <si>
@@ -149,29 +125,98 @@
     <t>Notas: AV1 - Projeto Arduino - Microcontroladores - 01/05/2023</t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
     <t>Obs.: Nota: NF - João Paranhos, mesma pessoa</t>
   </si>
   <si>
     <t>sozinho</t>
   </si>
   <si>
-    <t>MASANORI AZEVEDO FUKUTANI</t>
-  </si>
-  <si>
     <t>Ederson da Cruz Conceição</t>
   </si>
   <si>
-    <t>Projeto não exibe no Tinkercad</t>
+    <t>Diego do Espirito Santo</t>
+  </si>
+  <si>
+    <t>Ledson Patryck Silva</t>
+  </si>
+  <si>
+    <t>Masanori Azevedo Fukutani</t>
+  </si>
+  <si>
+    <t>Luciano dos Santos Gomes</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Obs.: Aluno novo</t>
+  </si>
+  <si>
+    <t>Obs.: Joaquim não fez o MM</t>
+  </si>
+  <si>
+    <t>Obs: Lâmpada simular dia e noite; curto lâmpada</t>
+  </si>
+  <si>
+    <t>Obs: resist mal definido; teclado libera acesso e não bloqueia de novo</t>
+  </si>
+  <si>
+    <t>Obs.: Fora do prazo e não postou na tarefa.</t>
+  </si>
+  <si>
+    <t>Jonatas Gomes Lima</t>
+  </si>
+  <si>
+    <t>Jonatas Bonfim Silva</t>
+  </si>
+  <si>
+    <t>Obs: Resist mal definido</t>
+  </si>
+  <si>
+    <t>Yuri Nascimento</t>
+  </si>
+  <si>
+    <t>* 8</t>
+  </si>
+  <si>
+    <t>* 4</t>
+  </si>
+  <si>
+    <t>* 3</t>
+  </si>
+  <si>
+    <t>** 1</t>
+  </si>
+  <si>
+    <t>**9</t>
+  </si>
+  <si>
+    <t>**5</t>
+  </si>
+  <si>
+    <t>**10</t>
+  </si>
+  <si>
+    <t>**6</t>
+  </si>
+  <si>
+    <t>Não fez 11</t>
+  </si>
+  <si>
+    <t>Teams 2</t>
+  </si>
+  <si>
+    <t>Diego Felipe Costa</t>
+  </si>
+  <si>
+    <t>Projeto não exibe no Tinkercad (definiu projeto como privado); link sumiu; gerou atraso nos resultados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +244,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,12 +308,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,6 +315,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -302,11 +365,19 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,12 +703,12 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="17" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D1" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" s="15" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D1" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -645,51 +716,48 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1</v>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>7</v>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -697,167 +765,195 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="s">
-        <v>20</v>
+      <c r="G9" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="F18">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>8.5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>8.5</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="9" t="s">
-        <v>41</v>
+      <c r="D28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>8.5</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>8</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>9</v>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -865,54 +961,48 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="13" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>8.5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>9</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
+      <c r="D35" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>32</v>
+      <c r="D36" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="E38">
         <v>9</v>
@@ -920,8 +1010,25 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>38</v>
+      <c r="G38" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7B7A5-DBFD-4224-B1FA-44FC14DE3C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DB56E-8BF0-4E85-A099-0E49C31FA967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Equipe</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Jonatas Bonfim Silva</t>
   </si>
   <si>
-    <t>Obs: Resist mal definido</t>
-  </si>
-  <si>
     <t>Yuri Nascimento</t>
   </si>
   <si>
@@ -210,6 +207,15 @@
   </si>
   <si>
     <t>Projeto não exibe no Tinkercad (definiu projeto como privado); link sumiu; gerou atraso nos resultados</t>
+  </si>
+  <si>
+    <t>Leandro de Assis Correia</t>
+  </si>
+  <si>
+    <t>Obs.: Projeto Alarme, postou em .PNG</t>
+  </si>
+  <si>
+    <t>Obs: Resist mal definido, reconsiderei.</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,10 +730,10 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -754,7 +760,7 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>42</v>
@@ -779,7 +785,7 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>6</v>
@@ -812,7 +818,7 @@
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
@@ -845,7 +851,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>7</v>
@@ -878,7 +884,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>13</v>
@@ -900,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>8.5</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -950,7 +956,7 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -966,19 +972,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E34">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>44</v>
+      <c r="G34" s="23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -999,7 +1005,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>12</v>
@@ -1016,7 +1022,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>35</v>
@@ -1029,6 +1035,20 @@
       </c>
       <c r="G40" s="23" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DB56E-8BF0-4E85-A099-0E49C31FA967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18951BDD-1DC3-465F-A3A0-EB33957772B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Equipe</t>
   </si>
@@ -149,9 +149,6 @@
     <t>ED</t>
   </si>
   <si>
-    <t>Obs.: Aluno novo</t>
-  </si>
-  <si>
     <t>Obs.: Joaquim não fez o MM</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>Obs: Resist mal definido, reconsiderei.</t>
+  </si>
+  <si>
+    <t>Obs.: Aluno novo; entregou atrasado - será dado a nota na AV3(Nota da AV1)</t>
+  </si>
+  <si>
+    <t>ALAN ROBERT SILVA BARROS</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,10 +733,10 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -760,10 +763,10 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -772,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -785,7 +788,7 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>6</v>
@@ -797,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -818,7 +821,7 @@
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>21</v>
@@ -851,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>7</v>
@@ -879,12 +882,12 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>13</v>
@@ -906,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>8.5</v>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -951,12 +954,12 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -994,7 +997,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,7 +1008,7 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>12</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>35</v>
@@ -1034,21 +1037,29 @@
         <v>0</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43">
         <v>12</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
         <v>57</v>
-      </c>
-      <c r="E42">
-        <v>7</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
+++ b/03 Assessments/notas AV1 microcontroladores projeto Arduino e MM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\25 WydenArea1ProgramacaoMicrocontroladores\03 Assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YduqsArea1\backup Avaliações AV1 e AV2 Yduqs 2023.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18951BDD-1DC3-465F-A3A0-EB33957772B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F17E04-0841-4327-A5C0-1391C621ABB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{37207522-E8FF-4681-8F81-32F57A53DE4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Equipe</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>ALAN ROBERT SILVA BARROS</t>
+  </si>
+  <si>
+    <t>AV1</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AED4F9D-46A6-4463-AA32-0C4C94548B61}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,12 +715,12 @@
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" s="15" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:8" s="15" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D1" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -730,8 +733,11 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>47</v>
       </c>
@@ -744,24 +750,48 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5">
+        <f>E5+F5</f>
+        <v>9</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G43" si="0">E6+F6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>53</v>
       </c>
@@ -774,19 +804,30 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D10" s="25" t="s">
         <v>15</v>
       </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>46</v>
       </c>
@@ -799,27 +840,48 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D13" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D14" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>45</v>
       </c>
@@ -832,24 +894,45 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>30</v>
       </c>
@@ -865,43 +948,61 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -917,11 +1018,15 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="H26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27" s="9" t="s">
         <v>34</v>
       </c>
@@ -931,8 +1036,12 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" s="9" t="s">
         <v>31</v>
       </c>
@@ -942,8 +1051,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
         <v>8</v>
       </c>
@@ -953,27 +1066,48 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>48</v>
       </c>
@@ -986,21 +1120,45 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H34" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1019,11 +1177,15 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>52</v>
       </c>
@@ -1031,24 +1193,37 @@
         <v>35</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H40" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>12</v>
       </c>
@@ -1058,7 +1233,14 @@
       <c r="E43">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
         <v>57</v>
       </c>
     </row>
